--- a/Gantt chart-Nbody Sim.xlsx
+++ b/Gantt chart-Nbody Sim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yojik\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yojik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D79F811-1F2A-4258-88AA-31EE767D8E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA6974-CD55-4184-AD06-92B082B77E2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C2EA123B-2299-4C12-A7E5-B998F35DEDC0}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Этап</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Создание визуализации</t>
   </si>
@@ -38,32 +34,6 @@
   </si>
   <si>
     <t>Первичная оптимизация рендеринга</t>
-  </si>
-  <si>
-    <r>
-      <t>Внедрение алгоритна O(N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(N))</t>
-    </r>
   </si>
   <si>
     <t>Название проекта</t>
@@ -99,13 +69,72 @@
     <t>Запись в файлы HDF5</t>
   </si>
   <si>
-    <t>Внедрение OpenCL для работы с видеокартой</t>
-  </si>
-  <si>
     <t>Корректировка визуализации</t>
   </si>
   <si>
-    <t>Обработка движения камеры</t>
+    <t>Задачи и подзадачи</t>
+  </si>
+  <si>
+    <t>Preparing presentation</t>
+  </si>
+  <si>
+    <t>Базовый функционал</t>
+  </si>
+  <si>
+    <t>Расширение и оптимизация</t>
+  </si>
+  <si>
+    <t>Внедрение CUDA для работы с видеокартой</t>
+  </si>
+  <si>
+    <t>Baseline N-body simulator</t>
+  </si>
+  <si>
+    <t>Scaling &amp; parallelization</t>
+  </si>
+  <si>
+    <t>Реализация инерциальной камеры</t>
+  </si>
+  <si>
+    <r>
+      <t>Внедрение алгоритма O(N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(N))</t>
+    </r>
+  </si>
+  <si>
+    <t>Создание паттернов в файлах HDF5</t>
+  </si>
+  <si>
+    <t>Оптимизация вычислительного ядра</t>
+  </si>
+  <si>
+    <t>Использование паттернов и замер изменений</t>
+  </si>
+  <si>
+    <t>Тестирование алогоритма O(N·log(N))</t>
+  </si>
+  <si>
+    <t>Получение результатов введения CUDA</t>
   </si>
 </sst>
 </file>
@@ -113,9 +142,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/m;@"/>
+    <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +176,32 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +213,30 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,12 +259,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,28 +298,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,23 +338,29 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="60% — акцент2" xfId="3" builtinId="36"/>
+    <cellStyle name="60% — акцент4" xfId="5" builtinId="44"/>
+    <cellStyle name="Акцент3" xfId="4" builtinId="37"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -257,6 +375,153 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -382,7 +647,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$22</c:f>
+              <c:f>Лист1!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -410,12 +675,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$22</c:f>
+              <c:f>Лист1!$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,7 +696,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$23</c:f>
+              <c:f>Лист1!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -459,12 +724,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$23</c:f>
+              <c:f>Лист1!$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>197</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,13 +1554,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>375311</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>145038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>661061</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>30738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1621,1074 +1886,2461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD09599-0322-457F-8987-5C632B80A942}">
-  <dimension ref="A1:IX24"/>
+  <dimension ref="A1:IX28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="BN5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="27" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="49" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="58" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="59" max="79" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="80" max="88" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="89" max="110" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="111" max="119" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="120" max="141" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="142" max="150" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="151" max="169" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="170" max="178" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="179" max="200" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="201" max="209" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="210" max="230" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="231" max="239" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="240" max="258" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="41" width="5.7109375" style="5" customWidth="1"/>
+    <col min="42" max="49" width="4.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="58" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="79" width="4.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="110" width="4.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="111" max="119" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="120" max="141" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="142" max="150" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="151" max="169" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="170" max="178" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="179" max="200" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="201" max="209" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="210" max="230" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="231" max="239" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="240" max="258" width="4" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18">
         <f ca="1">TODAY()</f>
-        <v>45973</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>45979</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
     </row>
     <row r="4" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>45917</v>
       </c>
-      <c r="F4" s="10">
-        <v>45918</v>
-      </c>
-      <c r="G4" s="10">
-        <v>45919</v>
-      </c>
-      <c r="H4" s="10">
-        <v>45920</v>
-      </c>
-      <c r="I4" s="10">
-        <v>45921</v>
-      </c>
-      <c r="J4" s="10">
-        <v>45922</v>
-      </c>
-      <c r="K4" s="10">
-        <v>45923</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="F4" s="7">
         <v>45924</v>
       </c>
-      <c r="M4" s="10">
-        <v>45925</v>
-      </c>
-      <c r="N4" s="10">
-        <v>45926</v>
-      </c>
-      <c r="O4" s="10">
-        <v>45927</v>
-      </c>
-      <c r="P4" s="10">
-        <v>45928</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>45929</v>
-      </c>
-      <c r="R4" s="10">
-        <v>45930</v>
-      </c>
-      <c r="S4" s="10">
+      <c r="G4" s="7">
         <v>45931</v>
       </c>
-      <c r="T4" s="10">
-        <v>45932</v>
-      </c>
-      <c r="U4" s="10">
-        <v>45933</v>
-      </c>
-      <c r="V4" s="10">
-        <v>45934</v>
-      </c>
-      <c r="W4" s="10">
-        <v>45935</v>
-      </c>
-      <c r="X4" s="10">
-        <v>45936</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>45937</v>
-      </c>
-      <c r="Z4" s="10">
+      <c r="H4" s="7">
         <v>45938</v>
       </c>
-      <c r="AA4" s="10">
-        <v>45939</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>45940</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>45941</v>
-      </c>
-      <c r="AD4" s="10">
-        <v>45942</v>
-      </c>
-      <c r="AE4" s="10">
-        <v>45943</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>45944</v>
-      </c>
-      <c r="AG4" s="10">
+      <c r="I4" s="7">
         <v>45945</v>
       </c>
-      <c r="AH4" s="10">
-        <v>45946</v>
-      </c>
-      <c r="AI4" s="10">
-        <v>45947</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>45948</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>45949</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>45950</v>
-      </c>
-      <c r="AM4" s="10">
-        <v>45951</v>
-      </c>
-      <c r="AN4" s="10">
+      <c r="J4" s="7">
         <v>45952</v>
       </c>
-      <c r="AO4" s="10">
-        <v>45953</v>
-      </c>
-      <c r="AP4" s="10">
-        <v>45954</v>
-      </c>
-      <c r="AQ4" s="10">
-        <v>45955</v>
-      </c>
-      <c r="AR4" s="10">
-        <v>45956</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>45957</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>45958</v>
-      </c>
-      <c r="AU4" s="10">
+      <c r="K4" s="7">
         <v>45959</v>
       </c>
-      <c r="AV4" s="10">
-        <v>45960</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>45961</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>45962</v>
-      </c>
-      <c r="AY4" s="10">
-        <v>45963</v>
-      </c>
-      <c r="AZ4" s="10">
-        <v>45964</v>
-      </c>
-      <c r="BA4" s="10">
-        <v>45965</v>
-      </c>
-      <c r="BB4" s="10">
+      <c r="L4" s="7">
         <v>45966</v>
       </c>
-      <c r="BC4" s="10">
-        <v>45967</v>
-      </c>
-      <c r="BD4" s="10">
-        <v>45968</v>
-      </c>
-      <c r="BE4" s="10">
-        <v>45969</v>
-      </c>
-      <c r="BF4" s="10">
-        <v>45970</v>
-      </c>
-      <c r="BG4" s="10">
-        <v>45971</v>
-      </c>
-      <c r="BH4" s="10">
-        <v>45972</v>
-      </c>
-      <c r="BI4" s="10">
+      <c r="M4" s="7">
         <v>45973</v>
       </c>
-      <c r="BJ4" s="10">
-        <v>45974</v>
-      </c>
-      <c r="BK4" s="10">
-        <v>45975</v>
-      </c>
-      <c r="BL4" s="10">
-        <v>45976</v>
-      </c>
-      <c r="BM4" s="10">
-        <v>45977</v>
-      </c>
-      <c r="BN4" s="10">
-        <v>45978</v>
-      </c>
-      <c r="BO4" s="10">
-        <v>45979</v>
-      </c>
-      <c r="BP4" s="10">
+      <c r="N4" s="7">
         <v>45980</v>
       </c>
-      <c r="BQ4" s="10">
-        <v>45981</v>
-      </c>
-      <c r="BR4" s="10">
-        <v>45982</v>
-      </c>
-      <c r="BS4" s="10">
-        <v>45983</v>
-      </c>
-      <c r="BT4" s="10">
-        <v>45984</v>
-      </c>
-      <c r="BU4" s="10">
-        <v>45985</v>
-      </c>
-      <c r="BV4" s="10">
-        <v>45986</v>
-      </c>
-      <c r="BW4" s="10">
+      <c r="O4" s="7">
         <v>45987</v>
       </c>
-      <c r="BX4" s="10">
-        <v>45988</v>
-      </c>
-      <c r="BY4" s="10">
-        <v>45989</v>
-      </c>
-      <c r="BZ4" s="10">
-        <v>45990</v>
-      </c>
-      <c r="CA4" s="10">
-        <v>45991</v>
-      </c>
-      <c r="CB4" s="10">
-        <v>45992</v>
-      </c>
-      <c r="CC4" s="10">
-        <v>45993</v>
-      </c>
-      <c r="CD4" s="10">
+      <c r="P4" s="7">
         <v>45994</v>
       </c>
-      <c r="CE4" s="10">
-        <v>45995</v>
-      </c>
-      <c r="CF4" s="10">
-        <v>45996</v>
-      </c>
-      <c r="CG4" s="10">
-        <v>45997</v>
-      </c>
-      <c r="CH4" s="10">
-        <v>45998</v>
-      </c>
-      <c r="CI4" s="10">
-        <v>45999</v>
-      </c>
-      <c r="CJ4" s="10">
-        <v>46000</v>
-      </c>
-      <c r="CK4" s="10">
+      <c r="Q4" s="7">
         <v>46001</v>
       </c>
-      <c r="CL4" s="10">
-        <v>46002</v>
-      </c>
-      <c r="CM4" s="10">
-        <v>46003</v>
-      </c>
-      <c r="CN4" s="10">
-        <v>46004</v>
-      </c>
-      <c r="CO4" s="10">
-        <v>46005</v>
-      </c>
-      <c r="CP4" s="10">
-        <v>46006</v>
-      </c>
-      <c r="CQ4" s="10">
-        <v>46007</v>
-      </c>
-      <c r="CR4" s="10">
+      <c r="R4" s="7">
         <v>46008</v>
       </c>
-      <c r="CS4" s="10">
-        <v>46009</v>
-      </c>
-      <c r="CT4" s="10">
-        <v>46010</v>
-      </c>
-      <c r="CU4" s="10">
-        <v>46011</v>
-      </c>
-      <c r="CV4" s="10">
-        <v>46012</v>
-      </c>
-      <c r="CW4" s="10">
-        <v>46013</v>
-      </c>
-      <c r="CX4" s="10">
-        <v>46014</v>
-      </c>
-      <c r="CY4" s="10">
+      <c r="S4" s="7">
         <v>46015</v>
       </c>
-      <c r="CZ4" s="10">
-        <v>46016</v>
-      </c>
-      <c r="DA4" s="10">
-        <v>46017</v>
-      </c>
-      <c r="DB4" s="10">
-        <v>46018</v>
-      </c>
-      <c r="DC4" s="10">
-        <v>46019</v>
-      </c>
-      <c r="DD4" s="10">
-        <v>46020</v>
-      </c>
-      <c r="DE4" s="10">
-        <v>46021</v>
-      </c>
-      <c r="DF4" s="10">
+      <c r="T4" s="7">
         <v>46022</v>
       </c>
-      <c r="DG4" s="10">
-        <v>46023</v>
-      </c>
-      <c r="DH4" s="10">
-        <v>46024</v>
-      </c>
-      <c r="DI4" s="10">
-        <v>46025</v>
-      </c>
-      <c r="DJ4" s="10">
-        <v>46026</v>
-      </c>
-      <c r="DK4" s="10">
-        <v>46027</v>
-      </c>
-      <c r="DL4" s="10">
-        <v>46028</v>
-      </c>
-      <c r="DM4" s="10">
+      <c r="U4" s="7">
         <v>46029</v>
       </c>
-      <c r="DN4" s="10">
-        <v>46030</v>
-      </c>
-      <c r="DO4" s="10">
-        <v>46031</v>
-      </c>
-      <c r="DP4" s="10">
-        <v>46032</v>
-      </c>
-      <c r="DQ4" s="10">
-        <v>46033</v>
-      </c>
-      <c r="DR4" s="10">
-        <v>46034</v>
-      </c>
-      <c r="DS4" s="10">
-        <v>46035</v>
-      </c>
-      <c r="DT4" s="10">
+      <c r="V4" s="7">
         <v>46036</v>
       </c>
-      <c r="DU4" s="10">
-        <v>46037</v>
-      </c>
-      <c r="DV4" s="10">
-        <v>46038</v>
-      </c>
-      <c r="DW4" s="10">
-        <v>46039</v>
-      </c>
-      <c r="DX4" s="10">
-        <v>46040</v>
-      </c>
-      <c r="DY4" s="10">
-        <v>46041</v>
-      </c>
-      <c r="DZ4" s="10">
-        <v>46042</v>
-      </c>
-      <c r="EA4" s="10">
+      <c r="W4" s="7">
         <v>46043</v>
       </c>
-      <c r="EB4" s="10">
-        <v>46044</v>
-      </c>
-      <c r="EC4" s="10">
-        <v>46045</v>
-      </c>
-      <c r="ED4" s="10">
-        <v>46046</v>
-      </c>
-      <c r="EE4" s="10">
-        <v>46047</v>
-      </c>
-      <c r="EF4" s="10">
-        <v>46048</v>
-      </c>
-      <c r="EG4" s="10">
-        <v>46049</v>
-      </c>
-      <c r="EH4" s="10">
+      <c r="X4" s="7">
         <v>46050</v>
       </c>
-      <c r="EI4" s="10">
-        <v>46051</v>
-      </c>
-      <c r="EJ4" s="10">
-        <v>46052</v>
-      </c>
-      <c r="EK4" s="10">
-        <v>46053</v>
-      </c>
-      <c r="EL4" s="10">
-        <v>46054</v>
-      </c>
-      <c r="EM4" s="10">
-        <v>46055</v>
-      </c>
-      <c r="EN4" s="10">
-        <v>46056</v>
-      </c>
-      <c r="EO4" s="10">
+      <c r="Y4" s="7">
         <v>46057</v>
       </c>
-      <c r="EP4" s="10">
-        <v>46058</v>
-      </c>
-      <c r="EQ4" s="10">
-        <v>46059</v>
-      </c>
-      <c r="ER4" s="10">
-        <v>46060</v>
-      </c>
-      <c r="ES4" s="10">
-        <v>46061</v>
-      </c>
-      <c r="ET4" s="10">
-        <v>46062</v>
-      </c>
-      <c r="EU4" s="10">
-        <v>46063</v>
-      </c>
-      <c r="EV4" s="10">
+      <c r="Z4" s="7">
         <v>46064</v>
       </c>
-      <c r="EW4" s="10">
-        <v>46065</v>
-      </c>
-      <c r="EX4" s="10">
-        <v>46066</v>
-      </c>
-      <c r="EY4" s="10">
-        <v>46067</v>
-      </c>
-      <c r="EZ4" s="10">
-        <v>46068</v>
-      </c>
-      <c r="FA4" s="10">
-        <v>46069</v>
-      </c>
-      <c r="FB4" s="10">
-        <v>46070</v>
-      </c>
-      <c r="FC4" s="10">
+      <c r="AA4" s="7">
         <v>46071</v>
       </c>
-      <c r="FD4" s="10">
-        <v>46072</v>
-      </c>
-      <c r="FE4" s="10">
-        <v>46073</v>
-      </c>
-      <c r="FF4" s="10">
-        <v>46074</v>
-      </c>
-      <c r="FG4" s="10">
-        <v>46075</v>
-      </c>
-      <c r="FH4" s="10">
-        <v>46076</v>
-      </c>
-      <c r="FI4" s="10">
-        <v>46077</v>
-      </c>
-      <c r="FJ4" s="10">
+      <c r="AB4" s="7">
         <v>46078</v>
       </c>
-      <c r="FK4" s="10">
-        <v>46079</v>
-      </c>
-      <c r="FL4" s="10">
-        <v>46080</v>
-      </c>
-      <c r="FM4" s="10">
-        <v>46081</v>
-      </c>
-      <c r="FN4" s="10">
-        <v>46082</v>
-      </c>
-      <c r="FO4" s="10">
-        <v>46083</v>
-      </c>
-      <c r="FP4" s="10">
-        <v>46084</v>
-      </c>
-      <c r="FQ4" s="10">
+      <c r="AC4" s="7">
         <v>46085</v>
       </c>
-      <c r="FR4" s="10">
-        <v>46086</v>
-      </c>
-      <c r="FS4" s="10">
-        <v>46087</v>
-      </c>
-      <c r="FT4" s="10">
-        <v>46088</v>
-      </c>
-      <c r="FU4" s="10">
-        <v>46089</v>
-      </c>
-      <c r="FV4" s="10">
-        <v>46090</v>
-      </c>
-      <c r="FW4" s="10">
-        <v>46091</v>
-      </c>
-      <c r="FX4" s="10">
+      <c r="AD4" s="7">
         <v>46092</v>
       </c>
-      <c r="FY4" s="10">
-        <v>46093</v>
-      </c>
-      <c r="FZ4" s="10">
-        <v>46094</v>
-      </c>
-      <c r="GA4" s="10">
-        <v>46095</v>
-      </c>
-      <c r="GB4" s="10">
-        <v>46096</v>
-      </c>
-      <c r="GC4" s="10">
-        <v>46097</v>
-      </c>
-      <c r="GD4" s="10">
-        <v>46098</v>
-      </c>
-      <c r="GE4" s="10">
+      <c r="AE4" s="7">
         <v>46099</v>
       </c>
-      <c r="GF4" s="10">
-        <v>46100</v>
-      </c>
-      <c r="GG4" s="10">
-        <v>46101</v>
-      </c>
-      <c r="GH4" s="10">
-        <v>46102</v>
-      </c>
-      <c r="GI4" s="10">
-        <v>46103</v>
-      </c>
-      <c r="GJ4" s="10">
-        <v>46104</v>
-      </c>
-      <c r="GK4" s="10">
-        <v>46105</v>
-      </c>
-      <c r="GL4" s="10">
+      <c r="AF4" s="7">
         <v>46106</v>
       </c>
-      <c r="GM4" s="10">
-        <v>46107</v>
-      </c>
-      <c r="GN4" s="10">
-        <v>46108</v>
-      </c>
-      <c r="GO4" s="10">
-        <v>46109</v>
-      </c>
-      <c r="GP4" s="10">
-        <v>46110</v>
-      </c>
-      <c r="GQ4" s="10">
-        <v>46111</v>
-      </c>
-      <c r="GR4" s="10">
-        <v>46112</v>
-      </c>
-      <c r="GS4" s="10">
+      <c r="AG4" s="7">
         <v>46113</v>
       </c>
-      <c r="GT4" s="10">
-        <v>46114</v>
-      </c>
-      <c r="GU4" s="10">
-        <v>46115</v>
-      </c>
-      <c r="GV4" s="10">
-        <v>46116</v>
-      </c>
-      <c r="GW4" s="10">
-        <v>46117</v>
-      </c>
-      <c r="GX4" s="10">
-        <v>46118</v>
-      </c>
-      <c r="GY4" s="10">
-        <v>46119</v>
-      </c>
-      <c r="GZ4" s="10">
+      <c r="AH4" s="7">
         <v>46120</v>
       </c>
-      <c r="HA4" s="10">
-        <v>46121</v>
-      </c>
-      <c r="HB4" s="10">
-        <v>46122</v>
-      </c>
-      <c r="HC4" s="10">
-        <v>46123</v>
-      </c>
-      <c r="HD4" s="10">
-        <v>46124</v>
-      </c>
-      <c r="HE4" s="10">
-        <v>46125</v>
-      </c>
-      <c r="HF4" s="10">
-        <v>46126</v>
-      </c>
-      <c r="HG4" s="10">
+      <c r="AI4" s="7">
         <v>46127</v>
       </c>
-      <c r="HH4" s="10">
-        <v>46128</v>
-      </c>
-      <c r="HI4" s="10">
-        <v>46129</v>
-      </c>
-      <c r="HJ4" s="10">
-        <v>46130</v>
-      </c>
-      <c r="HK4" s="10">
-        <v>46131</v>
-      </c>
-      <c r="HL4" s="10">
-        <v>46132</v>
-      </c>
-      <c r="HM4" s="10">
-        <v>46133</v>
-      </c>
-      <c r="HN4" s="10">
+      <c r="AJ4" s="7">
         <v>46134</v>
       </c>
-      <c r="HO4" s="10">
-        <v>46135</v>
-      </c>
-      <c r="HP4" s="10">
-        <v>46136</v>
-      </c>
-      <c r="HQ4" s="10">
-        <v>46137</v>
-      </c>
-      <c r="HR4" s="10">
-        <v>46138</v>
-      </c>
-      <c r="HS4" s="10">
-        <v>46139</v>
-      </c>
-      <c r="HT4" s="10">
-        <v>46140</v>
-      </c>
-      <c r="HU4" s="10">
+      <c r="AK4" s="7">
         <v>46141</v>
       </c>
-      <c r="HV4" s="10">
-        <v>46142</v>
-      </c>
-      <c r="HW4" s="10">
-        <v>46143</v>
-      </c>
-      <c r="HX4" s="10">
-        <v>46144</v>
-      </c>
-      <c r="HY4" s="10">
-        <v>46145</v>
-      </c>
-      <c r="HZ4" s="10">
-        <v>46146</v>
-      </c>
-      <c r="IA4" s="10">
-        <v>46147</v>
-      </c>
-      <c r="IB4" s="10">
+      <c r="AL4" s="7">
         <v>46148</v>
       </c>
-      <c r="IC4" s="10">
-        <v>46149</v>
-      </c>
-      <c r="ID4" s="10">
-        <v>46150</v>
-      </c>
-      <c r="IE4" s="10">
-        <v>46151</v>
-      </c>
-      <c r="IF4" s="10">
-        <v>46152</v>
-      </c>
-      <c r="IG4" s="10">
-        <v>46153</v>
-      </c>
-      <c r="IH4" s="10">
-        <v>46154</v>
-      </c>
-      <c r="II4" s="10">
+      <c r="AM4" s="7">
         <v>46155</v>
       </c>
-      <c r="IJ4" s="10">
-        <v>46156</v>
-      </c>
-      <c r="IK4" s="10">
-        <v>46157</v>
-      </c>
-      <c r="IL4" s="10">
-        <v>46158</v>
-      </c>
-      <c r="IM4" s="10">
-        <v>46159</v>
-      </c>
-      <c r="IN4" s="10">
-        <v>46160</v>
-      </c>
-      <c r="IO4" s="10">
-        <v>46161</v>
-      </c>
-      <c r="IP4" s="10">
+      <c r="AN4" s="7">
         <v>46162</v>
       </c>
-      <c r="IQ4" s="10">
-        <v>46163</v>
-      </c>
-      <c r="IR4" s="10">
-        <v>46164</v>
-      </c>
-      <c r="IS4" s="10">
-        <v>46165</v>
-      </c>
-      <c r="IT4" s="10">
-        <v>46166</v>
-      </c>
-      <c r="IU4" s="10">
-        <v>46167</v>
-      </c>
-      <c r="IV4" s="10">
-        <v>46168</v>
-      </c>
-      <c r="IW4" s="10">
+      <c r="AO4" s="8">
         <v>46169</v>
       </c>
-      <c r="IX4" s="10">
-        <v>46170</v>
-      </c>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="9"/>
+      <c r="CG4" s="9"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="9"/>
+      <c r="CK4" s="9"/>
+      <c r="CL4" s="9"/>
+      <c r="CM4" s="9"/>
+      <c r="CN4" s="9"/>
+      <c r="CO4" s="9"/>
+      <c r="CP4" s="9"/>
+      <c r="CQ4" s="9"/>
+      <c r="CR4" s="9"/>
+      <c r="CS4" s="9"/>
+      <c r="CT4" s="9"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="9"/>
+      <c r="CW4" s="9"/>
+      <c r="CX4" s="9"/>
+      <c r="CY4" s="9"/>
+      <c r="CZ4" s="9"/>
+      <c r="DA4" s="9"/>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
+      <c r="DD4" s="9"/>
+      <c r="DE4" s="9"/>
+      <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="9"/>
+      <c r="DI4" s="9"/>
+      <c r="DJ4" s="9"/>
+      <c r="DK4" s="9"/>
+      <c r="DL4" s="9"/>
+      <c r="DM4" s="9"/>
+      <c r="DN4" s="9"/>
+      <c r="DO4" s="9"/>
+      <c r="DP4" s="9"/>
+      <c r="DQ4" s="9"/>
+      <c r="DR4" s="9"/>
+      <c r="DS4" s="9"/>
+      <c r="DT4" s="9"/>
+      <c r="DU4" s="9"/>
+      <c r="DV4" s="9"/>
+      <c r="DW4" s="9"/>
+      <c r="DX4" s="9"/>
+      <c r="DY4" s="9"/>
+      <c r="DZ4" s="9"/>
+      <c r="EA4" s="9"/>
+      <c r="EB4" s="9"/>
+      <c r="EC4" s="9"/>
+      <c r="ED4" s="9"/>
+      <c r="EE4" s="9"/>
+      <c r="EF4" s="9"/>
+      <c r="EG4" s="9"/>
+      <c r="EH4" s="9"/>
+      <c r="EI4" s="9"/>
+      <c r="EJ4" s="9"/>
+      <c r="EK4" s="9"/>
+      <c r="EL4" s="9"/>
+      <c r="EM4" s="9"/>
+      <c r="EN4" s="9"/>
+      <c r="EO4" s="9"/>
+      <c r="EP4" s="9"/>
+      <c r="EQ4" s="9"/>
+      <c r="ER4" s="9"/>
+      <c r="ES4" s="9"/>
+      <c r="ET4" s="9"/>
+      <c r="EU4" s="9"/>
+      <c r="EV4" s="9"/>
+      <c r="EW4" s="9"/>
+      <c r="EX4" s="9"/>
+      <c r="EY4" s="9"/>
+      <c r="EZ4" s="9"/>
+      <c r="FA4" s="9"/>
+      <c r="FB4" s="9"/>
+      <c r="FC4" s="9"/>
+      <c r="FD4" s="9"/>
+      <c r="FE4" s="9"/>
+      <c r="FF4" s="9"/>
+      <c r="FG4" s="9"/>
+      <c r="FH4" s="9"/>
+      <c r="FI4" s="9"/>
+      <c r="FJ4" s="9"/>
+      <c r="FK4" s="9"/>
+      <c r="FL4" s="9"/>
+      <c r="FM4" s="9"/>
+      <c r="FN4" s="9"/>
+      <c r="FO4" s="9"/>
+      <c r="FP4" s="9"/>
+      <c r="FQ4" s="9"/>
+      <c r="FR4" s="9"/>
+      <c r="FS4" s="9"/>
+      <c r="FT4" s="9"/>
+      <c r="FU4" s="9"/>
+      <c r="FV4" s="9"/>
+      <c r="FW4" s="9"/>
+      <c r="FX4" s="9"/>
+      <c r="FY4" s="9"/>
+      <c r="FZ4" s="9"/>
+      <c r="GA4" s="9"/>
+      <c r="GB4" s="9"/>
+      <c r="GC4" s="9"/>
+      <c r="GD4" s="9"/>
+      <c r="GE4" s="9"/>
+      <c r="GF4" s="9"/>
+      <c r="GG4" s="9"/>
+      <c r="GH4" s="9"/>
+      <c r="GI4" s="9"/>
+      <c r="GJ4" s="9"/>
+      <c r="GK4" s="9"/>
+      <c r="GL4" s="9"/>
+      <c r="GM4" s="9"/>
+      <c r="GN4" s="9"/>
+      <c r="GO4" s="9"/>
+      <c r="GP4" s="9"/>
+      <c r="GQ4" s="9"/>
+      <c r="GR4" s="9"/>
+      <c r="GS4" s="9"/>
+      <c r="GT4" s="9"/>
+      <c r="GU4" s="9"/>
+      <c r="GV4" s="9"/>
+      <c r="GW4" s="9"/>
+      <c r="GX4" s="9"/>
+      <c r="GY4" s="9"/>
+      <c r="GZ4" s="9"/>
+      <c r="HA4" s="9"/>
+      <c r="HB4" s="9"/>
+      <c r="HC4" s="9"/>
+      <c r="HD4" s="9"/>
+      <c r="HE4" s="9"/>
+      <c r="HF4" s="9"/>
+      <c r="HG4" s="9"/>
+      <c r="HH4" s="9"/>
+      <c r="HI4" s="9"/>
+      <c r="HJ4" s="9"/>
+      <c r="HK4" s="9"/>
+      <c r="HL4" s="9"/>
+      <c r="HM4" s="9"/>
+      <c r="HN4" s="9"/>
+      <c r="HO4" s="9"/>
+      <c r="HP4" s="9"/>
+      <c r="HQ4" s="9"/>
+      <c r="HR4" s="9"/>
+      <c r="HS4" s="9"/>
+      <c r="HT4" s="9"/>
+      <c r="HU4" s="9"/>
+      <c r="HV4" s="9"/>
+      <c r="HW4" s="9"/>
+      <c r="HX4" s="9"/>
+      <c r="HY4" s="9"/>
+      <c r="HZ4" s="9"/>
+      <c r="IA4" s="9"/>
+      <c r="IB4" s="9"/>
+      <c r="IC4" s="9"/>
+      <c r="ID4" s="9"/>
+      <c r="IE4" s="9"/>
+      <c r="IF4" s="9"/>
+      <c r="IG4" s="9"/>
+      <c r="IH4" s="9"/>
+      <c r="II4" s="9"/>
+      <c r="IJ4" s="9"/>
+      <c r="IK4" s="9"/>
+      <c r="IL4" s="9"/>
+      <c r="IM4" s="9"/>
+      <c r="IN4" s="9"/>
+      <c r="IO4" s="9"/>
+      <c r="IP4" s="9"/>
+      <c r="IQ4" s="9"/>
+      <c r="IR4" s="9"/>
+      <c r="IS4" s="9"/>
+      <c r="IT4" s="9"/>
+      <c r="IU4" s="9"/>
+      <c r="IV4" s="9"/>
+      <c r="IW4" s="9"/>
+      <c r="IX4" s="9"/>
     </row>
     <row r="5" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="3">
+        <v>45917</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45931</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="9"/>
+      <c r="CM5" s="9"/>
+      <c r="CN5" s="9"/>
+      <c r="CO5" s="9"/>
+      <c r="CP5" s="9"/>
+      <c r="CQ5" s="9"/>
+      <c r="CR5" s="9"/>
+      <c r="CS5" s="9"/>
+      <c r="CT5" s="9"/>
+      <c r="CU5" s="9"/>
+      <c r="CV5" s="9"/>
+      <c r="CW5" s="9"/>
+      <c r="CX5" s="9"/>
+      <c r="CY5" s="9"/>
+      <c r="CZ5" s="9"/>
+      <c r="DA5" s="9"/>
+      <c r="DB5" s="9"/>
+      <c r="DC5" s="9"/>
+      <c r="DD5" s="9"/>
+      <c r="DE5" s="9"/>
+      <c r="DF5" s="9"/>
+      <c r="DG5" s="9"/>
+      <c r="DH5" s="9"/>
+      <c r="DI5" s="9"/>
+      <c r="DJ5" s="9"/>
+      <c r="DK5" s="9"/>
+      <c r="DL5" s="9"/>
+      <c r="DM5" s="9"/>
+      <c r="DN5" s="9"/>
+      <c r="DO5" s="9"/>
+      <c r="DP5" s="9"/>
+      <c r="DQ5" s="9"/>
+      <c r="DR5" s="9"/>
+      <c r="DS5" s="9"/>
+      <c r="DT5" s="9"/>
+      <c r="DU5" s="9"/>
+      <c r="DV5" s="9"/>
+      <c r="DW5" s="9"/>
+      <c r="DX5" s="9"/>
+      <c r="DY5" s="9"/>
+      <c r="DZ5" s="9"/>
+      <c r="EA5" s="9"/>
+      <c r="EB5" s="9"/>
+      <c r="EC5" s="9"/>
+      <c r="ED5" s="9"/>
+      <c r="EE5" s="9"/>
+      <c r="EF5" s="9"/>
+      <c r="EG5" s="9"/>
+      <c r="EH5" s="9"/>
+      <c r="EI5" s="9"/>
+      <c r="EJ5" s="9"/>
+      <c r="EK5" s="9"/>
+      <c r="EL5" s="9"/>
+      <c r="EM5" s="9"/>
+      <c r="EN5" s="9"/>
+      <c r="EO5" s="9"/>
+      <c r="EP5" s="9"/>
+      <c r="EQ5" s="9"/>
+      <c r="ER5" s="9"/>
+      <c r="ES5" s="9"/>
+      <c r="ET5" s="9"/>
+      <c r="EU5" s="9"/>
+      <c r="EV5" s="9"/>
+      <c r="EW5" s="9"/>
+      <c r="EX5" s="9"/>
+      <c r="EY5" s="9"/>
+      <c r="EZ5" s="9"/>
+      <c r="FA5" s="9"/>
+      <c r="FB5" s="9"/>
+      <c r="FC5" s="9"/>
+      <c r="FD5" s="9"/>
+      <c r="FE5" s="9"/>
+      <c r="FF5" s="9"/>
+      <c r="FG5" s="9"/>
+      <c r="FH5" s="9"/>
+      <c r="FI5" s="9"/>
+      <c r="FJ5" s="9"/>
+      <c r="FK5" s="9"/>
+      <c r="FL5" s="9"/>
+      <c r="FM5" s="9"/>
+      <c r="FN5" s="9"/>
+      <c r="FO5" s="9"/>
+      <c r="FP5" s="9"/>
+      <c r="FQ5" s="9"/>
+      <c r="FR5" s="9"/>
+      <c r="FS5" s="9"/>
+      <c r="FT5" s="9"/>
+      <c r="FU5" s="9"/>
+      <c r="FV5" s="9"/>
+      <c r="FW5" s="9"/>
+      <c r="FX5" s="9"/>
+      <c r="FY5" s="9"/>
+      <c r="FZ5" s="9"/>
+      <c r="GA5" s="9"/>
+      <c r="GB5" s="9"/>
+      <c r="GC5" s="9"/>
+      <c r="GD5" s="9"/>
+      <c r="GE5" s="9"/>
+      <c r="GF5" s="9"/>
+      <c r="GG5" s="9"/>
+      <c r="GH5" s="9"/>
+      <c r="GI5" s="9"/>
+      <c r="GJ5" s="9"/>
+      <c r="GK5" s="9"/>
+      <c r="GL5" s="9"/>
+      <c r="GM5" s="9"/>
+      <c r="GN5" s="9"/>
+      <c r="GO5" s="9"/>
+      <c r="GP5" s="9"/>
+      <c r="GQ5" s="9"/>
+      <c r="GR5" s="9"/>
+      <c r="GS5" s="9"/>
+      <c r="GT5" s="9"/>
+      <c r="GU5" s="9"/>
+      <c r="GV5" s="9"/>
+      <c r="GW5" s="9"/>
+      <c r="GX5" s="9"/>
+      <c r="GY5" s="9"/>
+      <c r="GZ5" s="9"/>
+      <c r="HA5" s="9"/>
+      <c r="HB5" s="9"/>
+      <c r="HC5" s="9"/>
+      <c r="HD5" s="9"/>
+      <c r="HE5" s="9"/>
+      <c r="HF5" s="9"/>
+      <c r="HG5" s="9"/>
+      <c r="HH5" s="9"/>
+      <c r="HI5" s="9"/>
+      <c r="HJ5" s="9"/>
+      <c r="HK5" s="9"/>
+      <c r="HL5" s="9"/>
+      <c r="HM5" s="9"/>
+      <c r="HN5" s="9"/>
+      <c r="HO5" s="9"/>
+      <c r="HP5" s="9"/>
+      <c r="HQ5" s="9"/>
+      <c r="HR5" s="9"/>
+      <c r="HS5" s="9"/>
+      <c r="HT5" s="9"/>
+      <c r="HU5" s="9"/>
+      <c r="HV5" s="9"/>
+      <c r="HW5" s="9"/>
+      <c r="HX5" s="9"/>
+      <c r="HY5" s="9"/>
+      <c r="HZ5" s="9"/>
+      <c r="IA5" s="9"/>
+      <c r="IB5" s="9"/>
+      <c r="IC5" s="9"/>
+      <c r="ID5" s="9"/>
+      <c r="IE5" s="9"/>
+      <c r="IF5" s="9"/>
+      <c r="IG5" s="9"/>
+      <c r="IH5" s="9"/>
+      <c r="II5" s="9"/>
+      <c r="IJ5" s="9"/>
+      <c r="IK5" s="9"/>
+      <c r="IL5" s="9"/>
+      <c r="IM5" s="9"/>
+      <c r="IN5" s="9"/>
+      <c r="IO5" s="9"/>
+      <c r="IP5" s="9"/>
+      <c r="IQ5" s="9"/>
+      <c r="IR5" s="9"/>
+      <c r="IS5" s="9"/>
+      <c r="IT5" s="9"/>
+      <c r="IU5" s="9"/>
+      <c r="IV5" s="9"/>
+      <c r="IW5" s="9"/>
+      <c r="IX5" s="9"/>
+    </row>
+    <row r="6" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="3">
+        <v>45917</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="3">
         <v>45917</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D7" s="3">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:258" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3">
         <v>45931</v>
       </c>
+      <c r="D8" s="3">
+        <v>45987</v>
+      </c>
     </row>
-    <row r="6" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="9" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="3">
+        <v>45931</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="3">
+        <v>45945</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="3">
+        <v>45959</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45966</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
+      <c r="CL11"/>
+      <c r="CM11"/>
+      <c r="CN11"/>
+      <c r="CO11"/>
+      <c r="CP11"/>
+      <c r="CQ11"/>
+      <c r="CR11"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
+      <c r="CU11"/>
+      <c r="CV11"/>
+      <c r="CW11"/>
+      <c r="CX11"/>
+      <c r="CY11"/>
+      <c r="CZ11"/>
+      <c r="DA11"/>
+      <c r="DB11"/>
+      <c r="DC11"/>
+      <c r="DD11"/>
+      <c r="DE11"/>
+      <c r="DF11"/>
+      <c r="DG11"/>
+      <c r="DH11"/>
+      <c r="DI11"/>
+      <c r="DJ11"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+      <c r="DR11"/>
+      <c r="DS11"/>
+      <c r="DT11"/>
+      <c r="DU11"/>
+      <c r="DV11"/>
+      <c r="DW11"/>
+      <c r="DX11"/>
+      <c r="DY11"/>
+      <c r="DZ11"/>
+      <c r="EA11"/>
+      <c r="EB11"/>
+      <c r="EC11"/>
+      <c r="ED11"/>
+      <c r="EE11"/>
+      <c r="EF11"/>
+      <c r="EG11"/>
+      <c r="EH11"/>
+      <c r="EI11"/>
+      <c r="EJ11"/>
+      <c r="EK11"/>
+      <c r="EL11"/>
+      <c r="EM11"/>
+      <c r="EN11"/>
+      <c r="EO11"/>
+      <c r="EP11"/>
+      <c r="EQ11"/>
+      <c r="ER11"/>
+      <c r="ES11"/>
+      <c r="ET11"/>
+      <c r="EU11"/>
+      <c r="EV11"/>
+      <c r="EW11"/>
+      <c r="EX11"/>
+      <c r="EY11"/>
+      <c r="EZ11"/>
+      <c r="FA11"/>
+      <c r="FB11"/>
+      <c r="FC11"/>
+      <c r="FD11"/>
+      <c r="FE11"/>
+      <c r="FF11"/>
+      <c r="FG11"/>
+      <c r="FH11"/>
+      <c r="FI11"/>
+      <c r="FJ11"/>
+      <c r="FK11"/>
+      <c r="FL11"/>
+      <c r="FM11"/>
+      <c r="FN11"/>
+      <c r="FO11"/>
+      <c r="FP11"/>
+      <c r="FQ11"/>
+      <c r="FR11"/>
+      <c r="FS11"/>
+      <c r="FT11"/>
+      <c r="FU11"/>
+      <c r="FV11"/>
+      <c r="FW11"/>
+      <c r="FX11"/>
+      <c r="FY11"/>
+      <c r="FZ11"/>
+      <c r="GA11"/>
+      <c r="GB11"/>
+      <c r="GC11"/>
+      <c r="GD11"/>
+      <c r="GE11"/>
+      <c r="GF11"/>
+      <c r="GG11"/>
+      <c r="GH11"/>
+      <c r="GI11"/>
+      <c r="GJ11"/>
+      <c r="GK11"/>
+      <c r="GL11"/>
+      <c r="GM11"/>
+      <c r="GN11"/>
+      <c r="GO11"/>
+      <c r="GP11"/>
+      <c r="GQ11"/>
+      <c r="GR11"/>
+      <c r="GS11"/>
+      <c r="GT11"/>
+      <c r="GU11"/>
+      <c r="GV11"/>
+      <c r="GW11"/>
+      <c r="GX11"/>
+      <c r="GY11"/>
+      <c r="GZ11"/>
+      <c r="HA11"/>
+      <c r="HB11"/>
+      <c r="HC11"/>
+      <c r="HD11"/>
+      <c r="HE11"/>
+      <c r="HF11"/>
+      <c r="HG11"/>
+      <c r="HH11"/>
+      <c r="HI11"/>
+      <c r="HJ11"/>
+      <c r="HK11"/>
+      <c r="HL11"/>
+      <c r="HM11"/>
+      <c r="HN11"/>
+      <c r="HO11"/>
+      <c r="HP11"/>
+      <c r="HQ11"/>
+      <c r="HR11"/>
+      <c r="HS11"/>
+      <c r="HT11"/>
+      <c r="HU11"/>
+      <c r="HV11"/>
+      <c r="HW11"/>
+      <c r="HX11"/>
+      <c r="HY11"/>
+      <c r="HZ11"/>
+      <c r="IA11"/>
+      <c r="IB11"/>
+      <c r="IC11"/>
+      <c r="ID11"/>
+      <c r="IE11"/>
+      <c r="IF11"/>
+      <c r="IG11"/>
+      <c r="IH11"/>
+      <c r="II11"/>
+      <c r="IJ11"/>
+      <c r="IK11"/>
+      <c r="IL11"/>
+      <c r="IM11"/>
+      <c r="IN11"/>
+      <c r="IO11"/>
+      <c r="IP11"/>
+      <c r="IQ11"/>
+      <c r="IR11"/>
+      <c r="IS11"/>
+      <c r="IT11"/>
+      <c r="IU11"/>
+      <c r="IV11"/>
+      <c r="IW11"/>
+      <c r="IX11"/>
+    </row>
+    <row r="12" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="3">
+        <v>45952</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="3">
+        <v>45973</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:258" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3">
+        <v>45973</v>
+      </c>
+      <c r="D14" s="3">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="3">
+        <v>45973</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="3">
+        <v>45987</v>
+      </c>
+      <c r="D16" s="3">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:258" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="3">
+        <v>45987</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:258" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="3">
+        <v>45994</v>
+      </c>
+      <c r="D18" s="3">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="3">
+        <v>45994</v>
+      </c>
+      <c r="D19" s="3">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:258" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="3">
+        <v>46015</v>
+      </c>
+      <c r="D20" s="3">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:258" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3">
         <v>45917</v>
       </c>
-      <c r="D6" s="4">
-        <v>45924</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
+      <c r="CF24"/>
+      <c r="CG24"/>
+      <c r="CH24"/>
+      <c r="CI24"/>
+      <c r="CJ24"/>
+      <c r="CK24"/>
+      <c r="CL24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CO24"/>
+      <c r="CP24"/>
+      <c r="CQ24"/>
+      <c r="CR24"/>
+      <c r="CS24"/>
+      <c r="CT24"/>
+      <c r="CU24"/>
+      <c r="CV24"/>
+      <c r="CW24"/>
+      <c r="CX24"/>
+      <c r="CY24"/>
+      <c r="CZ24"/>
+      <c r="DA24"/>
+      <c r="DB24"/>
+      <c r="DC24"/>
+      <c r="DD24"/>
+      <c r="DE24"/>
+      <c r="DF24"/>
+      <c r="DG24"/>
+      <c r="DH24"/>
+      <c r="DI24"/>
+      <c r="DJ24"/>
+      <c r="DK24"/>
+      <c r="DL24"/>
+      <c r="DM24"/>
+      <c r="DN24"/>
+      <c r="DO24"/>
+      <c r="DP24"/>
+      <c r="DQ24"/>
+      <c r="DR24"/>
+      <c r="DS24"/>
+      <c r="DT24"/>
+      <c r="DU24"/>
+      <c r="DV24"/>
+      <c r="DW24"/>
+      <c r="DX24"/>
+      <c r="DY24"/>
+      <c r="DZ24"/>
+      <c r="EA24"/>
+      <c r="EB24"/>
+      <c r="EC24"/>
+      <c r="ED24"/>
+      <c r="EE24"/>
+      <c r="EF24"/>
+      <c r="EG24"/>
+      <c r="EH24"/>
+      <c r="EI24"/>
+      <c r="EJ24"/>
+      <c r="EK24"/>
+      <c r="EL24"/>
+      <c r="EM24"/>
+      <c r="EN24"/>
+      <c r="EO24"/>
+      <c r="EP24"/>
+      <c r="EQ24"/>
+      <c r="ER24"/>
+      <c r="ES24"/>
+      <c r="ET24"/>
+      <c r="EU24"/>
+      <c r="EV24"/>
+      <c r="EW24"/>
+      <c r="EX24"/>
+      <c r="EY24"/>
+      <c r="EZ24"/>
+      <c r="FA24"/>
+      <c r="FB24"/>
+      <c r="FC24"/>
+      <c r="FD24"/>
+      <c r="FE24"/>
+      <c r="FF24"/>
+      <c r="FG24"/>
+      <c r="FH24"/>
+      <c r="FI24"/>
+      <c r="FJ24"/>
+      <c r="FK24"/>
+      <c r="FL24"/>
+      <c r="FM24"/>
+      <c r="FN24"/>
+      <c r="FO24"/>
+      <c r="FP24"/>
+      <c r="FQ24"/>
+      <c r="FR24"/>
+      <c r="FS24"/>
+      <c r="FT24"/>
+      <c r="FU24"/>
+      <c r="FV24"/>
+      <c r="FW24"/>
+      <c r="FX24"/>
+      <c r="FY24"/>
+      <c r="FZ24"/>
+      <c r="GA24"/>
+      <c r="GB24"/>
+      <c r="GC24"/>
+      <c r="GD24"/>
+      <c r="GE24"/>
+      <c r="GF24"/>
+      <c r="GG24"/>
+      <c r="GH24"/>
+      <c r="GI24"/>
+      <c r="GJ24"/>
+      <c r="GK24"/>
+      <c r="GL24"/>
+      <c r="GM24"/>
+      <c r="GN24"/>
+      <c r="GO24"/>
+      <c r="GP24"/>
+      <c r="GQ24"/>
+      <c r="GR24"/>
+      <c r="GS24"/>
+      <c r="GT24"/>
+      <c r="GU24"/>
+      <c r="GV24"/>
+      <c r="GW24"/>
+      <c r="GX24"/>
+      <c r="GY24"/>
+      <c r="GZ24"/>
+      <c r="HA24"/>
+      <c r="HB24"/>
+      <c r="HC24"/>
+      <c r="HD24"/>
+      <c r="HE24"/>
+      <c r="HF24"/>
+      <c r="HG24"/>
+      <c r="HH24"/>
+      <c r="HI24"/>
+      <c r="HJ24"/>
+      <c r="HK24"/>
+      <c r="HL24"/>
+      <c r="HM24"/>
+      <c r="HN24"/>
+      <c r="HO24"/>
+      <c r="HP24"/>
+      <c r="HQ24"/>
+      <c r="HR24"/>
+      <c r="HS24"/>
+      <c r="HT24"/>
+      <c r="HU24"/>
+      <c r="HV24"/>
+      <c r="HW24"/>
+      <c r="HX24"/>
+      <c r="HY24"/>
+      <c r="HZ24"/>
+      <c r="IA24"/>
+      <c r="IB24"/>
+      <c r="IC24"/>
+      <c r="ID24"/>
+      <c r="IE24"/>
+      <c r="IF24"/>
+      <c r="IG24"/>
+      <c r="IH24"/>
+      <c r="II24"/>
+      <c r="IJ24"/>
+      <c r="IK24"/>
+      <c r="IL24"/>
+      <c r="IM24"/>
+      <c r="IN24"/>
+      <c r="IO24"/>
+      <c r="IP24"/>
+      <c r="IQ24"/>
+      <c r="IR24"/>
+      <c r="IS24"/>
+      <c r="IT24"/>
+      <c r="IU24"/>
+      <c r="IV24"/>
+      <c r="IW24"/>
+      <c r="IX24"/>
     </row>
-    <row r="7" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4">
-        <v>45931</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45959</v>
-      </c>
+    <row r="25" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>46170</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
+      <c r="BM25"/>
+      <c r="BN25"/>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25"/>
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25"/>
+      <c r="BU25"/>
+      <c r="BV25"/>
+      <c r="BW25"/>
+      <c r="BX25"/>
+      <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25"/>
+      <c r="CF25"/>
+      <c r="CG25"/>
+      <c r="CH25"/>
+      <c r="CI25"/>
+      <c r="CJ25"/>
+      <c r="CK25"/>
+      <c r="CL25"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CO25"/>
+      <c r="CP25"/>
+      <c r="CQ25"/>
+      <c r="CR25"/>
+      <c r="CS25"/>
+      <c r="CT25"/>
+      <c r="CU25"/>
+      <c r="CV25"/>
+      <c r="CW25"/>
+      <c r="CX25"/>
+      <c r="CY25"/>
+      <c r="CZ25"/>
+      <c r="DA25"/>
+      <c r="DB25"/>
+      <c r="DC25"/>
+      <c r="DD25"/>
+      <c r="DE25"/>
+      <c r="DF25"/>
+      <c r="DG25"/>
+      <c r="DH25"/>
+      <c r="DI25"/>
+      <c r="DJ25"/>
+      <c r="DK25"/>
+      <c r="DL25"/>
+      <c r="DM25"/>
+      <c r="DN25"/>
+      <c r="DO25"/>
+      <c r="DP25"/>
+      <c r="DQ25"/>
+      <c r="DR25"/>
+      <c r="DS25"/>
+      <c r="DT25"/>
+      <c r="DU25"/>
+      <c r="DV25"/>
+      <c r="DW25"/>
+      <c r="DX25"/>
+      <c r="DY25"/>
+      <c r="DZ25"/>
+      <c r="EA25"/>
+      <c r="EB25"/>
+      <c r="EC25"/>
+      <c r="ED25"/>
+      <c r="EE25"/>
+      <c r="EF25"/>
+      <c r="EG25"/>
+      <c r="EH25"/>
+      <c r="EI25"/>
+      <c r="EJ25"/>
+      <c r="EK25"/>
+      <c r="EL25"/>
+      <c r="EM25"/>
+      <c r="EN25"/>
+      <c r="EO25"/>
+      <c r="EP25"/>
+      <c r="EQ25"/>
+      <c r="ER25"/>
+      <c r="ES25"/>
+      <c r="ET25"/>
+      <c r="EU25"/>
+      <c r="EV25"/>
+      <c r="EW25"/>
+      <c r="EX25"/>
+      <c r="EY25"/>
+      <c r="EZ25"/>
+      <c r="FA25"/>
+      <c r="FB25"/>
+      <c r="FC25"/>
+      <c r="FD25"/>
+      <c r="FE25"/>
+      <c r="FF25"/>
+      <c r="FG25"/>
+      <c r="FH25"/>
+      <c r="FI25"/>
+      <c r="FJ25"/>
+      <c r="FK25"/>
+      <c r="FL25"/>
+      <c r="FM25"/>
+      <c r="FN25"/>
+      <c r="FO25"/>
+      <c r="FP25"/>
+      <c r="FQ25"/>
+      <c r="FR25"/>
+      <c r="FS25"/>
+      <c r="FT25"/>
+      <c r="FU25"/>
+      <c r="FV25"/>
+      <c r="FW25"/>
+      <c r="FX25"/>
+      <c r="FY25"/>
+      <c r="FZ25"/>
+      <c r="GA25"/>
+      <c r="GB25"/>
+      <c r="GC25"/>
+      <c r="GD25"/>
+      <c r="GE25"/>
+      <c r="GF25"/>
+      <c r="GG25"/>
+      <c r="GH25"/>
+      <c r="GI25"/>
+      <c r="GJ25"/>
+      <c r="GK25"/>
+      <c r="GL25"/>
+      <c r="GM25"/>
+      <c r="GN25"/>
+      <c r="GO25"/>
+      <c r="GP25"/>
+      <c r="GQ25"/>
+      <c r="GR25"/>
+      <c r="GS25"/>
+      <c r="GT25"/>
+      <c r="GU25"/>
+      <c r="GV25"/>
+      <c r="GW25"/>
+      <c r="GX25"/>
+      <c r="GY25"/>
+      <c r="GZ25"/>
+      <c r="HA25"/>
+      <c r="HB25"/>
+      <c r="HC25"/>
+      <c r="HD25"/>
+      <c r="HE25"/>
+      <c r="HF25"/>
+      <c r="HG25"/>
+      <c r="HH25"/>
+      <c r="HI25"/>
+      <c r="HJ25"/>
+      <c r="HK25"/>
+      <c r="HL25"/>
+      <c r="HM25"/>
+      <c r="HN25"/>
+      <c r="HO25"/>
+      <c r="HP25"/>
+      <c r="HQ25"/>
+      <c r="HR25"/>
+      <c r="HS25"/>
+      <c r="HT25"/>
+      <c r="HU25"/>
+      <c r="HV25"/>
+      <c r="HW25"/>
+      <c r="HX25"/>
+      <c r="HY25"/>
+      <c r="HZ25"/>
+      <c r="IA25"/>
+      <c r="IB25"/>
+      <c r="IC25"/>
+      <c r="ID25"/>
+      <c r="IE25"/>
+      <c r="IF25"/>
+      <c r="IG25"/>
+      <c r="IH25"/>
+      <c r="II25"/>
+      <c r="IJ25"/>
+      <c r="IK25"/>
+      <c r="IL25"/>
+      <c r="IM25"/>
+      <c r="IN25"/>
+      <c r="IO25"/>
+      <c r="IP25"/>
+      <c r="IQ25"/>
+      <c r="IR25"/>
+      <c r="IS25"/>
+      <c r="IT25"/>
+      <c r="IU25"/>
+      <c r="IV25"/>
+      <c r="IW25"/>
+      <c r="IX25"/>
     </row>
-    <row r="8" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4">
-        <v>45938</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45945</v>
-      </c>
+    <row r="26" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4">
+        <f ca="1">TODAY()-B24</f>
+        <v>62</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26"/>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BX26"/>
+      <c r="BY26"/>
+      <c r="BZ26"/>
+      <c r="CA26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
+      <c r="CD26"/>
+      <c r="CE26"/>
+      <c r="CF26"/>
+      <c r="CG26"/>
+      <c r="CH26"/>
+      <c r="CI26"/>
+      <c r="CJ26"/>
+      <c r="CK26"/>
+      <c r="CL26"/>
+      <c r="CM26"/>
+      <c r="CN26"/>
+      <c r="CO26"/>
+      <c r="CP26"/>
+      <c r="CQ26"/>
+      <c r="CR26"/>
+      <c r="CS26"/>
+      <c r="CT26"/>
+      <c r="CU26"/>
+      <c r="CV26"/>
+      <c r="CW26"/>
+      <c r="CX26"/>
+      <c r="CY26"/>
+      <c r="CZ26"/>
+      <c r="DA26"/>
+      <c r="DB26"/>
+      <c r="DC26"/>
+      <c r="DD26"/>
+      <c r="DE26"/>
+      <c r="DF26"/>
+      <c r="DG26"/>
+      <c r="DH26"/>
+      <c r="DI26"/>
+      <c r="DJ26"/>
+      <c r="DK26"/>
+      <c r="DL26"/>
+      <c r="DM26"/>
+      <c r="DN26"/>
+      <c r="DO26"/>
+      <c r="DP26"/>
+      <c r="DQ26"/>
+      <c r="DR26"/>
+      <c r="DS26"/>
+      <c r="DT26"/>
+      <c r="DU26"/>
+      <c r="DV26"/>
+      <c r="DW26"/>
+      <c r="DX26"/>
+      <c r="DY26"/>
+      <c r="DZ26"/>
+      <c r="EA26"/>
+      <c r="EB26"/>
+      <c r="EC26"/>
+      <c r="ED26"/>
+      <c r="EE26"/>
+      <c r="EF26"/>
+      <c r="EG26"/>
+      <c r="EH26"/>
+      <c r="EI26"/>
+      <c r="EJ26"/>
+      <c r="EK26"/>
+      <c r="EL26"/>
+      <c r="EM26"/>
+      <c r="EN26"/>
+      <c r="EO26"/>
+      <c r="EP26"/>
+      <c r="EQ26"/>
+      <c r="ER26"/>
+      <c r="ES26"/>
+      <c r="ET26"/>
+      <c r="EU26"/>
+      <c r="EV26"/>
+      <c r="EW26"/>
+      <c r="EX26"/>
+      <c r="EY26"/>
+      <c r="EZ26"/>
+      <c r="FA26"/>
+      <c r="FB26"/>
+      <c r="FC26"/>
+      <c r="FD26"/>
+      <c r="FE26"/>
+      <c r="FF26"/>
+      <c r="FG26"/>
+      <c r="FH26"/>
+      <c r="FI26"/>
+      <c r="FJ26"/>
+      <c r="FK26"/>
+      <c r="FL26"/>
+      <c r="FM26"/>
+      <c r="FN26"/>
+      <c r="FO26"/>
+      <c r="FP26"/>
+      <c r="FQ26"/>
+      <c r="FR26"/>
+      <c r="FS26"/>
+      <c r="FT26"/>
+      <c r="FU26"/>
+      <c r="FV26"/>
+      <c r="FW26"/>
+      <c r="FX26"/>
+      <c r="FY26"/>
+      <c r="FZ26"/>
+      <c r="GA26"/>
+      <c r="GB26"/>
+      <c r="GC26"/>
+      <c r="GD26"/>
+      <c r="GE26"/>
+      <c r="GF26"/>
+      <c r="GG26"/>
+      <c r="GH26"/>
+      <c r="GI26"/>
+      <c r="GJ26"/>
+      <c r="GK26"/>
+      <c r="GL26"/>
+      <c r="GM26"/>
+      <c r="GN26"/>
+      <c r="GO26"/>
+      <c r="GP26"/>
+      <c r="GQ26"/>
+      <c r="GR26"/>
+      <c r="GS26"/>
+      <c r="GT26"/>
+      <c r="GU26"/>
+      <c r="GV26"/>
+      <c r="GW26"/>
+      <c r="GX26"/>
+      <c r="GY26"/>
+      <c r="GZ26"/>
+      <c r="HA26"/>
+      <c r="HB26"/>
+      <c r="HC26"/>
+      <c r="HD26"/>
+      <c r="HE26"/>
+      <c r="HF26"/>
+      <c r="HG26"/>
+      <c r="HH26"/>
+      <c r="HI26"/>
+      <c r="HJ26"/>
+      <c r="HK26"/>
+      <c r="HL26"/>
+      <c r="HM26"/>
+      <c r="HN26"/>
+      <c r="HO26"/>
+      <c r="HP26"/>
+      <c r="HQ26"/>
+      <c r="HR26"/>
+      <c r="HS26"/>
+      <c r="HT26"/>
+      <c r="HU26"/>
+      <c r="HV26"/>
+      <c r="HW26"/>
+      <c r="HX26"/>
+      <c r="HY26"/>
+      <c r="HZ26"/>
+      <c r="IA26"/>
+      <c r="IB26"/>
+      <c r="IC26"/>
+      <c r="ID26"/>
+      <c r="IE26"/>
+      <c r="IF26"/>
+      <c r="IG26"/>
+      <c r="IH26"/>
+      <c r="II26"/>
+      <c r="IJ26"/>
+      <c r="IK26"/>
+      <c r="IL26"/>
+      <c r="IM26"/>
+      <c r="IN26"/>
+      <c r="IO26"/>
+      <c r="IP26"/>
+      <c r="IQ26"/>
+      <c r="IR26"/>
+      <c r="IS26"/>
+      <c r="IT26"/>
+      <c r="IU26"/>
+      <c r="IV26"/>
+      <c r="IW26"/>
+      <c r="IX26"/>
     </row>
-    <row r="9" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4">
-        <v>45973</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45987</v>
-      </c>
+    <row r="27" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4">
+        <f ca="1">B25-TODAY()</f>
+        <v>191</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27"/>
+      <c r="BU27"/>
+      <c r="BV27"/>
+      <c r="BW27"/>
+      <c r="BX27"/>
+      <c r="BY27"/>
+      <c r="BZ27"/>
+      <c r="CA27"/>
+      <c r="CB27"/>
+      <c r="CC27"/>
+      <c r="CD27"/>
+      <c r="CE27"/>
+      <c r="CF27"/>
+      <c r="CG27"/>
+      <c r="CH27"/>
+      <c r="CI27"/>
+      <c r="CJ27"/>
+      <c r="CK27"/>
+      <c r="CL27"/>
+      <c r="CM27"/>
+      <c r="CN27"/>
+      <c r="CO27"/>
+      <c r="CP27"/>
+      <c r="CQ27"/>
+      <c r="CR27"/>
+      <c r="CS27"/>
+      <c r="CT27"/>
+      <c r="CU27"/>
+      <c r="CV27"/>
+      <c r="CW27"/>
+      <c r="CX27"/>
+      <c r="CY27"/>
+      <c r="CZ27"/>
+      <c r="DA27"/>
+      <c r="DB27"/>
+      <c r="DC27"/>
+      <c r="DD27"/>
+      <c r="DE27"/>
+      <c r="DF27"/>
+      <c r="DG27"/>
+      <c r="DH27"/>
+      <c r="DI27"/>
+      <c r="DJ27"/>
+      <c r="DK27"/>
+      <c r="DL27"/>
+      <c r="DM27"/>
+      <c r="DN27"/>
+      <c r="DO27"/>
+      <c r="DP27"/>
+      <c r="DQ27"/>
+      <c r="DR27"/>
+      <c r="DS27"/>
+      <c r="DT27"/>
+      <c r="DU27"/>
+      <c r="DV27"/>
+      <c r="DW27"/>
+      <c r="DX27"/>
+      <c r="DY27"/>
+      <c r="DZ27"/>
+      <c r="EA27"/>
+      <c r="EB27"/>
+      <c r="EC27"/>
+      <c r="ED27"/>
+      <c r="EE27"/>
+      <c r="EF27"/>
+      <c r="EG27"/>
+      <c r="EH27"/>
+      <c r="EI27"/>
+      <c r="EJ27"/>
+      <c r="EK27"/>
+      <c r="EL27"/>
+      <c r="EM27"/>
+      <c r="EN27"/>
+      <c r="EO27"/>
+      <c r="EP27"/>
+      <c r="EQ27"/>
+      <c r="ER27"/>
+      <c r="ES27"/>
+      <c r="ET27"/>
+      <c r="EU27"/>
+      <c r="EV27"/>
+      <c r="EW27"/>
+      <c r="EX27"/>
+      <c r="EY27"/>
+      <c r="EZ27"/>
+      <c r="FA27"/>
+      <c r="FB27"/>
+      <c r="FC27"/>
+      <c r="FD27"/>
+      <c r="FE27"/>
+      <c r="FF27"/>
+      <c r="FG27"/>
+      <c r="FH27"/>
+      <c r="FI27"/>
+      <c r="FJ27"/>
+      <c r="FK27"/>
+      <c r="FL27"/>
+      <c r="FM27"/>
+      <c r="FN27"/>
+      <c r="FO27"/>
+      <c r="FP27"/>
+      <c r="FQ27"/>
+      <c r="FR27"/>
+      <c r="FS27"/>
+      <c r="FT27"/>
+      <c r="FU27"/>
+      <c r="FV27"/>
+      <c r="FW27"/>
+      <c r="FX27"/>
+      <c r="FY27"/>
+      <c r="FZ27"/>
+      <c r="GA27"/>
+      <c r="GB27"/>
+      <c r="GC27"/>
+      <c r="GD27"/>
+      <c r="GE27"/>
+      <c r="GF27"/>
+      <c r="GG27"/>
+      <c r="GH27"/>
+      <c r="GI27"/>
+      <c r="GJ27"/>
+      <c r="GK27"/>
+      <c r="GL27"/>
+      <c r="GM27"/>
+      <c r="GN27"/>
+      <c r="GO27"/>
+      <c r="GP27"/>
+      <c r="GQ27"/>
+      <c r="GR27"/>
+      <c r="GS27"/>
+      <c r="GT27"/>
+      <c r="GU27"/>
+      <c r="GV27"/>
+      <c r="GW27"/>
+      <c r="GX27"/>
+      <c r="GY27"/>
+      <c r="GZ27"/>
+      <c r="HA27"/>
+      <c r="HB27"/>
+      <c r="HC27"/>
+      <c r="HD27"/>
+      <c r="HE27"/>
+      <c r="HF27"/>
+      <c r="HG27"/>
+      <c r="HH27"/>
+      <c r="HI27"/>
+      <c r="HJ27"/>
+      <c r="HK27"/>
+      <c r="HL27"/>
+      <c r="HM27"/>
+      <c r="HN27"/>
+      <c r="HO27"/>
+      <c r="HP27"/>
+      <c r="HQ27"/>
+      <c r="HR27"/>
+      <c r="HS27"/>
+      <c r="HT27"/>
+      <c r="HU27"/>
+      <c r="HV27"/>
+      <c r="HW27"/>
+      <c r="HX27"/>
+      <c r="HY27"/>
+      <c r="HZ27"/>
+      <c r="IA27"/>
+      <c r="IB27"/>
+      <c r="IC27"/>
+      <c r="ID27"/>
+      <c r="IE27"/>
+      <c r="IF27"/>
+      <c r="IG27"/>
+      <c r="IH27"/>
+      <c r="II27"/>
+      <c r="IJ27"/>
+      <c r="IK27"/>
+      <c r="IL27"/>
+      <c r="IM27"/>
+      <c r="IN27"/>
+      <c r="IO27"/>
+      <c r="IP27"/>
+      <c r="IQ27"/>
+      <c r="IR27"/>
+      <c r="IS27"/>
+      <c r="IT27"/>
+      <c r="IU27"/>
+      <c r="IV27"/>
+      <c r="IW27"/>
+      <c r="IX27"/>
     </row>
-    <row r="10" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4">
-        <v>45959</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4">
-        <v>45945</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="4">
-        <v>45973</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="4">
-        <v>45987</v>
-      </c>
-      <c r="D13" s="4">
-        <v>46015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4">
-        <v>45917</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4">
-        <v>46170</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5">
-        <f ca="1">TODAY()-B20</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="5">
-        <f ca="1">B21-TODAY()</f>
-        <v>197</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+    <row r="28" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
+      <c r="CD28"/>
+      <c r="CE28"/>
+      <c r="CF28"/>
+      <c r="CG28"/>
+      <c r="CH28"/>
+      <c r="CI28"/>
+      <c r="CJ28"/>
+      <c r="CK28"/>
+      <c r="CL28"/>
+      <c r="CM28"/>
+      <c r="CN28"/>
+      <c r="CO28"/>
+      <c r="CP28"/>
+      <c r="CQ28"/>
+      <c r="CR28"/>
+      <c r="CS28"/>
+      <c r="CT28"/>
+      <c r="CU28"/>
+      <c r="CV28"/>
+      <c r="CW28"/>
+      <c r="CX28"/>
+      <c r="CY28"/>
+      <c r="CZ28"/>
+      <c r="DA28"/>
+      <c r="DB28"/>
+      <c r="DC28"/>
+      <c r="DD28"/>
+      <c r="DE28"/>
+      <c r="DF28"/>
+      <c r="DG28"/>
+      <c r="DH28"/>
+      <c r="DI28"/>
+      <c r="DJ28"/>
+      <c r="DK28"/>
+      <c r="DL28"/>
+      <c r="DM28"/>
+      <c r="DN28"/>
+      <c r="DO28"/>
+      <c r="DP28"/>
+      <c r="DQ28"/>
+      <c r="DR28"/>
+      <c r="DS28"/>
+      <c r="DT28"/>
+      <c r="DU28"/>
+      <c r="DV28"/>
+      <c r="DW28"/>
+      <c r="DX28"/>
+      <c r="DY28"/>
+      <c r="DZ28"/>
+      <c r="EA28"/>
+      <c r="EB28"/>
+      <c r="EC28"/>
+      <c r="ED28"/>
+      <c r="EE28"/>
+      <c r="EF28"/>
+      <c r="EG28"/>
+      <c r="EH28"/>
+      <c r="EI28"/>
+      <c r="EJ28"/>
+      <c r="EK28"/>
+      <c r="EL28"/>
+      <c r="EM28"/>
+      <c r="EN28"/>
+      <c r="EO28"/>
+      <c r="EP28"/>
+      <c r="EQ28"/>
+      <c r="ER28"/>
+      <c r="ES28"/>
+      <c r="ET28"/>
+      <c r="EU28"/>
+      <c r="EV28"/>
+      <c r="EW28"/>
+      <c r="EX28"/>
+      <c r="EY28"/>
+      <c r="EZ28"/>
+      <c r="FA28"/>
+      <c r="FB28"/>
+      <c r="FC28"/>
+      <c r="FD28"/>
+      <c r="FE28"/>
+      <c r="FF28"/>
+      <c r="FG28"/>
+      <c r="FH28"/>
+      <c r="FI28"/>
+      <c r="FJ28"/>
+      <c r="FK28"/>
+      <c r="FL28"/>
+      <c r="FM28"/>
+      <c r="FN28"/>
+      <c r="FO28"/>
+      <c r="FP28"/>
+      <c r="FQ28"/>
+      <c r="FR28"/>
+      <c r="FS28"/>
+      <c r="FT28"/>
+      <c r="FU28"/>
+      <c r="FV28"/>
+      <c r="FW28"/>
+      <c r="FX28"/>
+      <c r="FY28"/>
+      <c r="FZ28"/>
+      <c r="GA28"/>
+      <c r="GB28"/>
+      <c r="GC28"/>
+      <c r="GD28"/>
+      <c r="GE28"/>
+      <c r="GF28"/>
+      <c r="GG28"/>
+      <c r="GH28"/>
+      <c r="GI28"/>
+      <c r="GJ28"/>
+      <c r="GK28"/>
+      <c r="GL28"/>
+      <c r="GM28"/>
+      <c r="GN28"/>
+      <c r="GO28"/>
+      <c r="GP28"/>
+      <c r="GQ28"/>
+      <c r="GR28"/>
+      <c r="GS28"/>
+      <c r="GT28"/>
+      <c r="GU28"/>
+      <c r="GV28"/>
+      <c r="GW28"/>
+      <c r="GX28"/>
+      <c r="GY28"/>
+      <c r="GZ28"/>
+      <c r="HA28"/>
+      <c r="HB28"/>
+      <c r="HC28"/>
+      <c r="HD28"/>
+      <c r="HE28"/>
+      <c r="HF28"/>
+      <c r="HG28"/>
+      <c r="HH28"/>
+      <c r="HI28"/>
+      <c r="HJ28"/>
+      <c r="HK28"/>
+      <c r="HL28"/>
+      <c r="HM28"/>
+      <c r="HN28"/>
+      <c r="HO28"/>
+      <c r="HP28"/>
+      <c r="HQ28"/>
+      <c r="HR28"/>
+      <c r="HS28"/>
+      <c r="HT28"/>
+      <c r="HU28"/>
+      <c r="HV28"/>
+      <c r="HW28"/>
+      <c r="HX28"/>
+      <c r="HY28"/>
+      <c r="HZ28"/>
+      <c r="IA28"/>
+      <c r="IB28"/>
+      <c r="IC28"/>
+      <c r="ID28"/>
+      <c r="IE28"/>
+      <c r="IF28"/>
+      <c r="IG28"/>
+      <c r="IH28"/>
+      <c r="II28"/>
+      <c r="IJ28"/>
+      <c r="IK28"/>
+      <c r="IL28"/>
+      <c r="IM28"/>
+      <c r="IN28"/>
+      <c r="IO28"/>
+      <c r="IP28"/>
+      <c r="IQ28"/>
+      <c r="IR28"/>
+      <c r="IS28"/>
+      <c r="IT28"/>
+      <c r="IU28"/>
+      <c r="IV28"/>
+      <c r="IW28"/>
+      <c r="IX28"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="25">
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="O3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:IX4">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="E5:AO20">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>AND(E$4&gt;=$C5,E$4 &lt;$D5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:AO4">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>E$4 &gt; TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>E$4 &lt; TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>E$4 = TODAY()</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:IX18 E5:IX13">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(E$4 &gt;= $C5, E$4 &lt;= $D5)</formula>
+  <conditionalFormatting sqref="E5:AO5 E8:AO8 E14:AO14 E17:AO18">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND(E$4&gt;=$C5,E$4&lt;$D5)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
